--- a/ResultFormatter/Wyniki.xlsx
+++ b/ResultFormatter/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ola\Studia\Master\ReasearchPlatform\ResultFormatter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF45CC-ACED-4816-8579-6EDDECE76D00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623AB3EA-B9DC-4061-99C9-C6CB73DF0C34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B4498698-B07F-4B43-9131-66918FF25F70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4498698-B07F-4B43-9131-66918FF25F70}"/>
   </bookViews>
   <sheets>
     <sheet name="50-1000 Czasy, nody, fc i u" sheetId="3" r:id="rId1"/>
@@ -19,10 +19,10 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId4"/>
-    <pivotCache cacheId="38" r:id="rId5"/>
-    <pivotCache cacheId="31" r:id="rId6"/>
-    <pivotCache cacheId="36" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7406,6 +7406,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7462,6 +7465,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7489,6 +7495,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7684,6 +7693,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7740,6 +7752,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7852,6 +7867,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7879,6 +7897,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9045,6 +9066,62 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent6"/>
@@ -9993,6 +10070,62 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -26730,7 +26863,896 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E211EDBA-9EB0-4BB8-A5ED-DA4CCB843657}" name="Tabela przestawna9" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9650D5E0-C7B3-4300-B96C-9FEFA5B3B790}" name="Tabela przestawna7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="L73:Q85" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Średnia z Utility" fld="4" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C80312F-EDD3-4F4C-9FBD-883676FC131D}" name="Tabela przestawna11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="P2:U15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Średnia z Goal function value" fld="6" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE0AD30C-73C9-4D18-898F-7D57A997952F}" name="Tabela przestawna6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="L48:Q60" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Średnia z Goal function value" fld="3" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{374C6C28-619D-4209-98E0-1F3E3F69B16B}" name="Tabela przestawna5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="L25:P31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Średnia z Duration of scheduling [ms]" fld="7" subtotal="average" baseField="0" baseItem="10"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74BD4271-94F4-4B16-8F36-811D0CFEBC94}" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="N8:R20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Średnia z Duration of multi criteria [ms]" fld="8" subtotal="average" baseField="0" baseItem="10"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E211EDBA-9EB0-4BB8-A5ED-DA4CCB843657}" name="Tabela przestawna9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="T25:U42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -26978,173 +28000,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C80312F-EDD3-4F4C-9FBD-883676FC131D}" name="Tabela przestawna11" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="P2:U15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Średnia z Goal function value" fld="6" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30E7D8FC-7FB9-4E83-B5CF-D7797D60F899}" name="Tabela przestawna8" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30E7D8FC-7FB9-4E83-B5CF-D7797D60F899}" name="Tabela przestawna8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="T2:X8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -27297,720 +28154,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9650D5E0-C7B3-4300-B96C-9FEFA5B3B790}" name="Tabela przestawna7" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="L73:Q85" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Średnia z Utility" fld="4" subtotal="average" baseField="2" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="8">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE0AD30C-73C9-4D18-898F-7D57A997952F}" name="Tabela przestawna6" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="L48:Q60" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Średnia z Goal function value" fld="3" subtotal="average" baseField="2" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="8">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{374C6C28-619D-4209-98E0-1F3E3F69B16B}" name="Tabela przestawna5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="L25:P31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Średnia z Duration of scheduling [ms]" fld="7" subtotal="average" baseField="0" baseItem="10"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74BD4271-94F4-4B16-8F36-811D0CFEBC94}" name="Tabela przestawna2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="N8:R20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Średnia z Duration of multi criteria [ms]" fld="8" subtotal="average" baseField="0" baseItem="10"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0435F330-D68D-4096-B6BE-5678A2A0603E}" name="Tabela przestawna13" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0435F330-D68D-4096-B6BE-5678A2A0603E}" name="Tabela przestawna13" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="P18:T29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -28122,7 +28267,7 @@
   <dataFields count="1">
     <dataField name="Średnia z Duration of scheduling [ms]" fld="8" subtotal="average" baseField="4" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -28156,6 +28301,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -28170,7 +28327,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21973F3A-1EAE-4B50-9B87-93D94D3C9C1E}" name="Tabela przestawna12" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21973F3A-1EAE-4B50-9B87-93D94D3C9C1E}" name="Tabela przestawna12" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="O2:P12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -28266,7 +28423,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B16A6E8E-B91F-47A1-AEFC-F1F61550CA8F}" name="Tabela przestawna14" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B16A6E8E-B91F-47A1-AEFC-F1F61550CA8F}" name="Tabela przestawna14" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="Q25:U38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
@@ -28733,8 +28890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE85C13-F0DD-4623-8665-9B50B1E70ED1}">
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" zoomScale="79" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U56" sqref="U56"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T74" sqref="T74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32279,7 +32436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3C7C81-1B68-498C-8408-B503F47DA437}">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="G12" workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
